--- a/Results Part 2 and 4.xlsx
+++ b/Results Part 2 and 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahale\Documents\McGill\COMP 551\Assignments\COMP551\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5BB0A4-3EF7-43E5-941A-845337C95141}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86705184-B956-4274-8C5D-8D914D81DDBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C891C5E4-6C34-4DBB-9814-6EE2137A3DC8}"/>
   </bookViews>
@@ -31,21 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>k</t>
-  </si>
-  <si>
-    <t>wine-LDA rt</t>
-  </si>
-  <si>
-    <t>wine-LR rt</t>
-  </si>
-  <si>
-    <t>wine-LDA acc</t>
-  </si>
-  <si>
-    <t>wine-LR acc</t>
   </si>
   <si>
     <t>LDA Accuracy</t>
@@ -400,7 +388,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$6</c15:sqref>
@@ -429,7 +417,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$6:$K$6</c15:sqref>
@@ -470,7 +458,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-6231-4A5F-B201-142D74EA4206}"/>
                   </c:ext>
@@ -483,7 +471,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$2</c15:sqref>
@@ -503,7 +491,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$K$2</c15:sqref>
@@ -544,7 +532,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-6231-4A5F-B201-142D74EA4206}"/>
                   </c:ext>
@@ -557,7 +545,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$6</c15:sqref>
@@ -577,7 +565,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$6:$K$6</c15:sqref>
@@ -618,7 +606,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-6231-4A5F-B201-142D74EA4206}"/>
                   </c:ext>
@@ -631,7 +619,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$2</c15:sqref>
@@ -660,7 +648,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$K$2</c15:sqref>
@@ -701,7 +689,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-6231-4A5F-B201-142D74EA4206}"/>
                   </c:ext>
@@ -714,7 +702,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$6</c15:sqref>
@@ -743,7 +731,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$6:$K$6</c15:sqref>
@@ -784,7 +772,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-6231-4A5F-B201-142D74EA4206}"/>
                   </c:ext>
@@ -1143,35 +1131,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7:$K$7</c:f>
+              <c:f>Sheet1!$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.62201953</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.56464481</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.91972232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.06482768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>117.6699364</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>136.7738352</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>152.9527168</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>174.249651</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200.0144498</c:v>
+                  <c:v>Logistic Regression Runtime</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,6 +1183,775 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-B75A-4BAF-B290-A0E5CEFB7887}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2004888512"/>
+        <c:axId val="2086235136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2004888512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Folds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> for K-Fold Valuation</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086235136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086235136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004888512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Wine </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Dataset Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDA Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>73.545966228892993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.340425531914804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.679197994987405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.303258145363401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.846394984325997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.817610062892996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.673379483952104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.733668341708494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.896464646464594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F9E1-4E2C-80BE-0ABBB018E1E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F9E1-4E2C-80BE-0ABBB018E1E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2004888512"/>
+        <c:axId val="2086235136"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2004888512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Folds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> for K-Fold Valuation</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086235136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086235136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2004888512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77168022747156617"/>
+          <c:y val="0.13293197725284345"/>
+          <c:w val="0.20609755030621171"/>
+          <c:h val="0.41973753280839893"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Wine </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Dataset Runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDA Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.8226814270019503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3722600936889607E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14124274253845201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16764712333679199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19972896575927701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.163640022277832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26653003692626898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.208704233169555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.284061670303344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E78C-4327-9EA3-5B840238E7FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E78C-4327-9EA3-5B840238E7FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1519,6 +2252,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D3B330-930E-4B27-9937-26205BB7AB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD91E83-C479-4136-9A8D-936D5930A954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1826,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ECF8D2-F80B-4B25-96F6-5FFF76EA11D3}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1869,10 +2678,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>95.900439238652993</v>
@@ -1904,10 +2713,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2.0275592803954998E-2</v>
@@ -1939,10 +2748,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>73.545966228892993</v>
@@ -1974,10 +2783,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6.8226814270019503E-2</v>
@@ -2009,10 +2818,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>97.071742313323497</v>
@@ -2044,10 +2853,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>21.622019529342602</v>
@@ -2078,13 +2887,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
